--- a/quant_workgroup/mtl_viz/ModelParameters.xlsx
+++ b/quant_workgroup/mtl_viz/ModelParameters.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="6720"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="CCParams" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="PSYParams" sheetId="3" r:id="rId3"/>
     <sheet name="AggParams" sheetId="4" r:id="rId4"/>
     <sheet name="SPParams" sheetId="5" r:id="rId5"/>
-    <sheet name="DataNotes" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Presets">OFFSET([1]Hidden!$A$1,0,0,COUNTA([1]Hidden!$A:$A),1)</definedName>
     <definedName name="region">[1]Hidden!$H$2</definedName>
+    <definedName name="server">[1]Hidden!$I$2</definedName>
     <definedName name="sta3n">[1]Control!$D$2</definedName>
     <definedName name="stations">OFFSET([1]Hidden!$B$1,0,0,COUNTA([1]Hidden!$B:$B),1)</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="209">
   <si>
     <t>Starting Rate (mean)</t>
   </si>
@@ -153,18 +153,27 @@
     <t>An estimate of the mean total weekly number of medication management appointments available with this team. The estimate is calculated using the volume of medication management visits completed with the team over one year. Not used in the model. (appt/wk)</t>
   </si>
   <si>
+    <t>Appointment Supply (Median)</t>
+  </si>
+  <si>
     <t>An estimate of the median total weekly number of medication management appointments available with this team. The estimate is calculated using the volume of medication management visits completed with the team over one year. (appt/wk)</t>
   </si>
   <si>
     <t>An estimate of the total weekly number of medication management appointments available with this team. The estimate is calculated using the volume of medication management visits completed with the team over one year. (appt/wk)</t>
   </si>
   <si>
+    <t>Slots Allocation %(With X waiver)</t>
+  </si>
+  <si>
     <t>The mean number of weeks that patients stay engaged with the team, receiving medication management visits, according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in medication management across treatment episodes, regardless of gaps in service.  This version uses mean instead of median, and is not used in the model. (wks)</t>
   </si>
   <si>
     <t>These estimates were calculated directly from the visit timelines of the patient cohort.  For each patient in the cohort, their first and last medication management visits were found and subtracted to get an engagement time in weeks.  Note that the first visit could be years ago, and the last visit could be the day before the query was run. Also, note that gaps in treatment are bridged, regardless of how long the gap is. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
+    <t>Slots Allocation %(without X waiver)</t>
+  </si>
+  <si>
     <t>The median number of weeks that patients stay engaged with the team, receiving medication management visits, according to team data. The visits can be with any member of the team.  This engagement time represents a patient's entire engagement in medication management across treatment episodes, regardless of gaps in service. (wks)</t>
   </si>
   <si>
@@ -279,19 +288,16 @@
     <t>Completers Frequency</t>
   </si>
   <si>
-    <t>Initiators Who Quit Early Duration</t>
-  </si>
-  <si>
     <t>An estimate of the duration of engagement in weeks for each pattern of engagement, calculated from visits over their first three months of engagement. (wks)</t>
   </si>
   <si>
-    <t>Initators Who Graduate Duration</t>
+    <t>Initiators Who Graduate Duration</t>
   </si>
   <si>
     <t>Engagement Attributes for patients after their first 3 months</t>
   </si>
   <si>
-    <t>Starters Who Come Back Later Low Frequency (median)</t>
+    <t>Starters Who Come Back Later Low Frequency</t>
   </si>
   <si>
     <t>An estimate of appointments per week for each pattern of engagement, calculated from visits after their first three months of engagement. (appt/wk)</t>
@@ -300,64 +306,64 @@
     <t>After the patients have been categorized by patterns of engagement, those who return for additional visits after three months are further categorized into low, medium, and high groups based on duration of engagement. The medium group comprises the middle 50%, with low and high comprising 25% each. The duration values are the 25th percentile, 50th percentile, and 75th percentile values taken from the entire group, and then the frequencies are calculated from the median visit counts of each group.</t>
   </si>
   <si>
-    <t>Starters Who Come Back Later Medium Frequency (median)</t>
-  </si>
-  <si>
-    <t>Starters Who Come Back Later High Frequency (median)</t>
-  </si>
-  <si>
-    <t>Initiators Who Come Back Later Low Frequency (median)</t>
-  </si>
-  <si>
-    <t>Initiators Who Come Back Later Medium Frequency (median)</t>
-  </si>
-  <si>
-    <t>Initiators Who Come Back Later High Frequency (median)</t>
-  </si>
-  <si>
-    <t>Completers Who Return Low Frequency (median)</t>
-  </si>
-  <si>
-    <t>Completers Who Return Medium Frequency (median)</t>
-  </si>
-  <si>
-    <t>Completers Who Return High Frequency (median)</t>
-  </si>
-  <si>
-    <t>Starters Who Return Later Low Duration (median)</t>
+    <t>Starters Who Come Back Later Medium Frequency</t>
+  </si>
+  <si>
+    <t>Starters Who Come Back Later High Frequency</t>
+  </si>
+  <si>
+    <t>Initiators Who Come Back Later Low Frequency</t>
+  </si>
+  <si>
+    <t>Initiators Who Come Back Later Medium Frequency</t>
+  </si>
+  <si>
+    <t>Initiators Who Come Back Later High Frequency</t>
+  </si>
+  <si>
+    <t>Completers Who Return Low Frequency</t>
+  </si>
+  <si>
+    <t>Completers Who Return Medium Frequency</t>
+  </si>
+  <si>
+    <t>Completers Who Return High Frequency</t>
+  </si>
+  <si>
+    <t>Starters Who Return Later Low Duration</t>
   </si>
   <si>
     <t>An estimate of the duration of engagement in weeks for each pattern of engagement, calculated from visits after their first three months of engagement. (wks)</t>
   </si>
   <si>
-    <t>Starters Who Return Later Medium Duration (median)</t>
-  </si>
-  <si>
-    <t>Starters Who Return Later High Duration (median)</t>
-  </si>
-  <si>
-    <t>Initiators Who Return Later Low Duration (median)</t>
-  </si>
-  <si>
-    <t>Initiators Who Return Later Medium Duration (median)</t>
-  </si>
-  <si>
-    <t>Initiators Who Return Later High Duration (median)</t>
-  </si>
-  <si>
-    <t>Completers Who Return Low Duration (median)</t>
-  </si>
-  <si>
-    <t>Completers Who Return Medium Duration (median)</t>
-  </si>
-  <si>
-    <t>Completers Who Return High Duration (median)</t>
+    <t>Starters Who Return Later Medium Duration</t>
+  </si>
+  <si>
+    <t>Starters Who Return Later High Duration</t>
+  </si>
+  <si>
+    <t>Initiators Who Return Later Low Duration</t>
+  </si>
+  <si>
+    <t>Initiators Who Return Later Medium Duration</t>
+  </si>
+  <si>
+    <t>Initiators Who Return Later High Duration</t>
+  </si>
+  <si>
+    <t>Completers Who Return Low Duration</t>
+  </si>
+  <si>
+    <t>Completers Who Return Medium Duration</t>
+  </si>
+  <si>
+    <t>Completers Who Return High Duration</t>
   </si>
   <si>
     <t>Patient demand</t>
   </si>
   <si>
-    <t>New Patient Start Rate (mean)</t>
+    <t>New Patient Start Rate</t>
   </si>
   <si>
     <t>An estimate of the number of new patients starting with the team per week, calculated from the number of patients seen for psychotherapy in one year who have never had a psychotherapy visit with this team before.</t>
@@ -372,7 +378,7 @@
     <t>Sankey</t>
   </si>
   <si>
-    <t>Patient Cohort Size</t>
+    <t>Sankey Scalar</t>
   </si>
   <si>
     <t>The data pull's cohort of patients (the unique patients who had a visit with the team between 18 and 6 months ago).</t>
@@ -384,63 +390,66 @@
     <t>Diagnostic proportions</t>
   </si>
   <si>
-    <t>PTSD %</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with post traumatic stress disorder (PTSD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of PTSD within their entire psychotherapy engagement.</t>
   </si>
   <si>
     <t>These diagnostic proportions are estimated from the patient cohort (see the DataNotes tab for details) by simply counting how many patients have a visit with the given primary diagnosis and then dividing by the cohort size. Note that the proportions can and should sum to more than one, because many patients have multiple diagnoses and get care for each in different visits which are they coded with different primary diagnoses.</t>
   </si>
   <si>
-    <t>DEP %</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with depression (DEP), calculated from the cohort of patients who completed visits charted with a primary diagnosis of DEP within their entire psychotherapy engagement.</t>
   </si>
   <si>
-    <t>AUD %</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with alchohol use disorder (AUD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of AUD within their entire psychotherapy engagement.</t>
   </si>
   <si>
-    <t>OUD %</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with opioid use disorder (OUD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of OUD within their entire psychotherapy engagement.</t>
   </si>
   <si>
-    <t>PTSD within 3 months %</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with post traumatic stress disorder (PTSD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of PTSD within the patient's first three months.</t>
   </si>
   <si>
-    <t>DEP within 3 months %</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with depression (DEP), calculated from the cohort of patients who completed visits charted with a primary diagnosis of DEP within the patient's first three months.</t>
   </si>
   <si>
-    <t>AUD within 3 months %</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with alcohol use disorder (AUD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of AUD within the patient's first three months.</t>
   </si>
   <si>
-    <t>OUD within 3 months %</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with opioid use disorder (OUD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of OUD within the patient's first three months.</t>
   </si>
   <si>
+    <t>%PTSD</t>
+  </si>
+  <si>
+    <t>%Dep</t>
+  </si>
+  <si>
+    <t>%AUD</t>
+  </si>
+  <si>
+    <t>%OUD</t>
+  </si>
+  <si>
+    <t>%PTSD within 3 months</t>
+  </si>
+  <si>
+    <t>%Dep within 3 months</t>
+  </si>
+  <si>
+    <t>%AUD within 3 months</t>
+  </si>
+  <si>
+    <t>%OUD within 3 months</t>
+  </si>
+  <si>
     <t>The proportion of appointments for each service with this team that no-showed or were cancelled after the appointment was supposed to have happened. (pct)</t>
   </si>
   <si>
     <t>These estimates were calculated from the visits and appointments of the patient cohort.  Note that missed appointments do not have an associated visit record, and so do not have an encounter type. Therefore, these missed appointment percentages by encounter type bin were estimated by using patient characteristics: all the patients who had had a visit of a certain encounter type with this team have all their missed appointments counted towards that encounter type. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
+    <t>Appointment Supply</t>
+  </si>
+  <si>
     <t>An estimate of the weekly hours available with this team for each service.   The estimate is calculated using the volume of visits for each service with this team over one year. (appt/wk)</t>
   </si>
   <si>
@@ -453,7 +462,7 @@
     <t>These estimates were calculated directly from the visit timelines of the patient cohort.  For each patient, their first and last visits of each type were found and subtracted to get an engagement time in weeks. The engagement times shown are for the median patient.  Note that the first visit could be years ago, and the last visit could be the day before the query was run. Also, note that gaps in treatment are bridged, regardless of how long the gap is. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
-    <t>Service Proportions from Team Data</t>
+    <t>Referral Percentage</t>
   </si>
   <si>
     <t>The proportion of patients who receive visits for each service with this team. Note that the percentages sum to more than one, because patients may engage in multiple services concurrently. (pct)</t>
@@ -462,6 +471,9 @@
     <t>These estimates were calculated from the visit timelines of the patient cohort. For each "new patient" (see new patient start rate below for details), their first visit was found, and all visits within three months after that visit were broken out into the encounter bins. These referral percentages are the proportions of the different services (encounter type bins) received within that window, per "new patient." The referral percentage for intakes is set to 1, based on the idea that the decision about what services the patient should get is an "intake/evaluation" or review visit in the model, regardless of how that visit was actually coded. Note that this is different from the appointment supply number shown above, which does use the CPT codes on visits. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
+    <t>Return Visit Interval</t>
+  </si>
+  <si>
     <t>The median return-to-clinic visit interval by encounter type bin with this team, calculated from the number of visits per patient over their entire engagement time. (wks)</t>
   </si>
   <si>
@@ -474,10 +486,22 @@
     <t>This estimate was calculated from the visit timelines of the patient cohort.  Here, "new patients" are not new to the team altogether, but rather are new to a service within the team, using a recursive definition. As described above for referral percentages, each new patient gets a certain mix of services within three months. When a patient starts a new service outside of that window, they are counted as a new patient again: they have a new three month window of visits, new corresponding referral percentages for their service mix within that three month window, and another opportunity to get counted as an addition new patient if they get new services outside of that three month window.  The recursion maxes out at 5 iterations (i.e. a patient can be counted as new using this definition a maximum of 5 times), because there are 5 encounter types used (collapsing psy and ebpsy, and ignoring intake - see the referral percentages description above for why intake is ignored here). See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
+    <t>AUD</t>
+  </si>
+  <si>
     <t>These estimates were calculated from the attributes of the patient cohort (see the DataNotes tab for details).  For each visit, a primary diagnosis was coded, and those primary diagnoses were binned into the four diagnoses of interest - Alcohol Use Disorder, Depression, Opioid Use Disorder, and Post Traumatic Stress Disorder.  The diagnostic percentages are the crosstab of all those visits by encounter bin and diagnosis bin. See the DataNotes tab for details on the patient cohort, the encounter type bins, and the diagnosis bins.</t>
   </si>
   <si>
-    <t>Other %</t>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>OUD</t>
+  </si>
+  <si>
+    <t>PTSD</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Service Types</t>
@@ -561,16 +585,19 @@
     <t>Time from Flag to Referral</t>
   </si>
   <si>
-    <t>Flag PCMHI to GMH (median)</t>
+    <t>PCMHI to GMH (median)</t>
   </si>
   <si>
     <t>Once a patient is assigned the high risk for suicide flag, this is the median number of weeks before the patient is referred to another location. (wks)</t>
   </si>
   <si>
-    <t>Flag SMH to Inp (median)</t>
-  </si>
-  <si>
-    <t>Flag SMH to GMH (median)</t>
+    <t>As above, the flag is not necessary added or removed by providers of the listed location.</t>
+  </si>
+  <si>
+    <t>SMH to Inp (median)</t>
+  </si>
+  <si>
+    <t>SMH to GMH (median)</t>
   </si>
   <si>
     <t>Engagement Time Before Clean Transfer</t>
@@ -588,15 +615,9 @@
     <t>GMH to SMH (median)</t>
   </si>
   <si>
-    <t>PCMHI to GMH (median)</t>
-  </si>
-  <si>
     <t>PCMHI to SMH (median)</t>
   </si>
   <si>
-    <t xml:space="preserve"> SMH to GMH (median)</t>
-  </si>
-  <si>
     <t>SMH to PCMHI (median)</t>
   </si>
   <si>
@@ -618,9 +639,6 @@
     <t>This calculation captures the difference from the last visit with the referring team to the first visit with the new team, if a clean transfer is detected. See the DataNotes tab for a description of the transfer detection algorithm, including the definition of a clean transfer.</t>
   </si>
   <si>
-    <t>SMH to GMH (median)</t>
-  </si>
-  <si>
     <t>Symptom Proportions</t>
   </si>
   <si>
@@ -637,90 +655,6 @@
   </si>
   <si>
     <t>SMH High Symptom %</t>
-  </si>
-  <si>
-    <t>Patient Cohort:</t>
-  </si>
-  <si>
-    <t>These data pulls use a somewhat novel method of building a patient cohort. In order to capture the very long engagement times of some patients, we decided we needed to be able to look backwards as far as possible to find patients' first visits.  Therefore, the patient cohort for each model is built by capturing all the unique patients who had a visit with the given team (from the user-supplied list of clinics/grids) within the correct encounter bin (see below) between 18 and 6 months ago.  From that set of clinics, patients, and CPT codes, the query then fetches all visits, no matter how long ago or how recent. Then, in order to capture parameters that should be time-bound, such as new patients per week, the query can use that single year (e.g. from the patient cohort, how many were new to the team in the year that was used to build the cohort? Because that patient count captures all new patients over the year, we can just divide by 52 to get an average new patients per week).  For parameters that should not be time-bound, all the visits can be considered, so that some patients will correctly be fed into the model with many visits over years of engagement.</t>
-  </si>
-  <si>
-    <t>Encounter bins:</t>
-  </si>
-  <si>
-    <t>The encounter types used in the models come from the following CPT codes:</t>
-  </si>
-  <si>
-    <t>case when cpt.CPTCode in ('90791','90792','99201','99202','99203','99204','99205') then 'Evaluation'</t>
-  </si>
-  <si>
-    <t>when cpt.CPTCode in ('90834','90837') then 'Psychotherapy 60-minute'</t>
-  </si>
-  <si>
-    <t>when cpt.CPTCode in ('90833','90836') then 'Psychotherapy with med mgmt'</t>
-  </si>
-  <si>
-    <t>when cpt.CPTCode in ('90853') then 'Group therapy'</t>
-  </si>
-  <si>
-    <t>when cpt.CPTCode in ('90847') then 'Family therapy'</t>
-  </si>
-  <si>
-    <t>when cpt.CPTCode in ('99212','99213','99214','99215') then 'Med mgmt'</t>
-  </si>
-  <si>
-    <t>when cpt.CPTCode in ('t1016','90832','90839') then 'Care or support'</t>
-  </si>
-  <si>
-    <t>when cpt.CPTCode in ('h0005') then 'Addiction'</t>
-  </si>
-  <si>
-    <t>when cpt.CPTCode in ('99441','99442','99443','98966','98967','98968') then 'Telephone'</t>
-  </si>
-  <si>
-    <t>when cpt.cptcode in ('97533','97150') then 'art/rec'</t>
-  </si>
-  <si>
-    <t>else 'adjunct' end as 'Encounter Type'</t>
-  </si>
-  <si>
-    <t>Psy model patient engagement patterns:</t>
-  </si>
-  <si>
-    <t>There are eight flows by patient engagement pattern, as shown in the Sankey diagram on the right. Note that there are three flows from the one visit node on the far left, three flows from the 2-7 node, and two flows from the 8+ node. The model takes proportional flow widths as inputs. I.e. proportional heights in the diagram shown, since the flows go horizontally. For example, the top flow, which connects the [OneVisit] node to the [Done Forever] node would be passed to the model as approximately 0.4, because the flow height is about 35% of the height of the [OneVisit] node. With that system, only 5 quantities need to be passed to the model, and the other three (one from each non-ending node) can be calculated. For example, if the flow from [OneVisit] to [2-7WithinThreeMonths] is also 0.4, then the model can calculate that the remaining flow, from [OneVisit] to [Back After Three Months] is 0.25, because 1-0.4-0.4 =0.2.</t>
-  </si>
-  <si>
-    <t>SP Model transfer detection and categorization algorithm:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A detection/categorization algorithm is necessary in order to fill the model transfer parameters. "Clean" transfers are when a patient transfers from one location to another. Note that patients can continue to receive services in the old location even after a clean transfer, as long as they get care slowly (RVI &gt; 12 weeks). See the steps in the table to the right. "Concurrent" is for when a patient receives services in both locations without a transfer. A "bounce" is when a patient gets only one visit in the new location. </t>
-  </si>
-  <si>
-    <t>Step 1:</t>
-  </si>
-  <si>
-    <t>Identify a (potential) transfer by detecting a visit in one of the other sets of locations, either user-supplied or pcmh by stopcode.</t>
-  </si>
-  <si>
-    <t>Identify lost to f/u by detecting a gap (no visits) of at least 6 months. Note that this means a patient can be categorized as lost to followup, and then another new patient if they get more visits after the gap.</t>
-  </si>
-  <si>
-    <t>step 2:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check how many visits occur in the new location, unless the new location is PCMH (in which case skip this step).  If it's only 1 visit, then the transfer bounces, and the algorithm stops. </t>
-  </si>
-  <si>
-    <t>step 3:</t>
-  </si>
-  <si>
-    <t>Check for 2 visits with the old team after the first new team visit. If only 1 or 0 visits with the old team, then the transfer is clean, and the algorithm stops.</t>
-  </si>
-  <si>
-    <t>step 4:</t>
-  </si>
-  <si>
-    <t>If there are at least 2 visits with the old team after the first new team visit, then calculate rvi in the old team, using the number of visits and the datediff from the first new team visit until the last old team visit.  If rvi &gt; 12 weeks, then the tranfer is clean. Otherwise, it is concurrent.</t>
   </si>
 </sst>
 </file>
@@ -797,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -847,27 +781,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -989,16 +908,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,621 +921,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1076325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1847850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5181600" y="1076325"/>
-          <a:ext cx="8991600" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5181600" y="5905500"/>
-          <a:ext cx="6096000" cy="3295650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="bg2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="6115050"/>
-          <a:ext cx="609600" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>0.4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5629275" y="6524625"/>
-          <a:ext cx="0" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5629275" y="5905500"/>
-          <a:ext cx="0" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5410200" y="8096250"/>
-          <a:ext cx="609600" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>0.4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5705475" y="8505825"/>
-          <a:ext cx="0" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5705475" y="7886700"/>
-          <a:ext cx="0" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5581650" y="7277100"/>
-          <a:ext cx="609600" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>0.2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5876925" y="7686675"/>
-          <a:ext cx="0" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5876925" y="7105650"/>
-          <a:ext cx="0" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1657,7 +951,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>523</v>
+            <v>640</v>
           </cell>
         </row>
       </sheetData>
@@ -1681,7 +975,10 @@
             <v>402</v>
           </cell>
           <cell r="H2">
-            <v>4</v>
+            <v>1</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>R01ScrDWH50.r01.med.va.gov</v>
           </cell>
         </row>
         <row r="3">
@@ -2713,7 +2010,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2729,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>6.6153839999999997</v>
+        <v>0.69230700000000001</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2743,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>0.25075075074999997</v>
+        <v>5.7471264367000001E-2</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -2754,7 +2053,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0.20930499999999999</v>
+        <v>0.28827700000000001</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -2768,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>23.418837</v>
+        <v>4.7195119999999999</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>9</v>
@@ -2782,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -2796,7 +2095,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5">
-        <v>5.4632959999999997</v>
+        <v>0.76974699999999996</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>14</v>
@@ -2807,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>4.1428570000000002</v>
+        <v>0.71428499999999995</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -2818,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>18</v>
@@ -2832,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>21</v>
@@ -2846,7 +2145,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
@@ -2860,7 +2159,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="5">
-        <v>73.770683000000005</v>
+        <v>86.367594999999994</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>25</v>
@@ -2874,7 +2173,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>62.714284999999997</v>
+        <v>99.999999500000001</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -2908,8 +2207,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>7.6923000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="15">
-        <v>3.5192299999999999</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
         <v>3.8461000000000002E-2</v>
-      </c>
-      <c r="E1" s="2">
-        <v>23.192307</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>32</v>
@@ -2950,16 +2249,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7">
-        <v>5.3364269141000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>4.4811320754000003E-2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>33</v>
@@ -2972,16 +2271,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0.20619599999999999</v>
+        <v>0</v>
       </c>
       <c r="C3" s="15">
-        <v>0.280555</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.33777699999999999</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.214587</v>
+        <v>0.44827499999999998</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>34</v>
@@ -2995,16 +2294,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>23.157893999999999</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>23.235294</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>16.428571000000002</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>24.613990999999999</v>
+        <v>1</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>36</v>
@@ -3018,16 +2317,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C5" s="15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>37</v>
@@ -3041,16 +2340,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="7">
-        <v>1.928571</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>4.7072200000000004</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>2.571428</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>4.4076849999999999</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>38</v>
@@ -3062,16 +2361,16 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>1.6428569999999998</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
-        <v>4.4999994999999995</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>2.571428</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>4.7142850000000003</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
@@ -3083,7 +2382,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3103,10 +2402,10 @@
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3118,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>19</v>
@@ -3129,7 +2428,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="C10" s="21">
         <v>0</v>
@@ -3141,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -3149,53 +2448,53 @@
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7">
-        <v>117.72180400000001</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>108.45693199999999</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>93.979590999999999</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>116.05678899999999</v>
+        <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2">
-        <v>128.14285699999999</v>
+        <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>112.92857100000001</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>101.857142</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>126.571428</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2">
         <v>3.8610038610029998E-3</v>
@@ -3210,15 +2509,15 @@
         <v>0.83353557639271902</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
         <v>3.8652678078400001E-3</v>
@@ -3233,15 +2532,15 @@
         <v>0.834456101601325</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2">
         <v>0.5</v>
@@ -3250,25 +2549,25 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F16" s="18"/>
     </row>
@@ -3296,10 +2595,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:F47"/>
+  <dimension ref="A2:F133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,49 +2617,49 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="15">
-        <v>0.40573152338000001</v>
+        <v>9.1954022989999995E-2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="15">
-        <v>0.25652173912999998</v>
+        <v>0.18918918918899999</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="14"/>
@@ -3368,26 +2667,26 @@
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" s="15">
-        <v>0</v>
+        <v>0.11538461538399999</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" s="15">
-        <v>0.34690799396599997</v>
+        <v>0.850574712643</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="14"/>
@@ -3395,40 +2694,40 @@
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" s="15">
-        <v>0</v>
+        <v>0.35135135135099999</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C8" s="31">
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C9" s="34">
-        <v>0.28571428599999998</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="28"/>
@@ -3437,10 +2736,10 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="34">
-        <v>0.18181818199999999</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="28"/>
@@ -3448,10 +2747,10 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="15">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="28"/>
@@ -3459,10 +2758,10 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" s="15">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="28"/>
@@ -3470,51 +2769,51 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="15">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" s="31">
-        <v>2.9411764705882353E-2</v>
+        <v>4.7091412742382273E-2</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" s="34">
-        <v>4.1666666666666664E-2</v>
+        <v>8.11965811965812E-2</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="28"/>
@@ -3522,10 +2821,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" s="35">
-        <v>4.3859649122807015E-2</v>
+        <v>0.12099644128113879</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="28"/>
@@ -3533,10 +2832,10 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C18" s="31">
-        <v>9.5238095238095233E-2</v>
+        <v>8.8435374149659865E-2</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="28"/>
@@ -3544,10 +2843,10 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C19" s="34">
-        <v>6.5217391304347824E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="28"/>
@@ -3555,10 +2854,10 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="35">
-        <v>6.3829787234042548E-2</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="28"/>
@@ -3566,10 +2865,10 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" s="31">
-        <v>0</v>
+        <v>0.36206896551724138</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="28"/>
@@ -3577,10 +2876,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" s="15">
-        <v>0</v>
+        <v>0.421875</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="28"/>
@@ -3588,10 +2887,10 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" s="15">
-        <v>0</v>
+        <v>0.34051724137931033</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="28"/>
@@ -3599,23 +2898,23 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" s="31">
-        <v>34</v>
+        <v>90.25</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C25" s="15">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="28"/>
@@ -3623,10 +2922,10 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C26" s="15">
-        <v>114</v>
+        <v>140.5</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="28"/>
@@ -3634,10 +2933,10 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C27" s="31">
-        <v>21</v>
+        <v>73.5</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="28"/>
@@ -3645,10 +2944,10 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C28" s="15">
-        <v>46</v>
+        <v>115.5</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="28"/>
@@ -3656,10 +2955,10 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C29" s="15">
-        <v>94</v>
+        <v>161.5</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="28"/>
@@ -3667,10 +2966,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C30" s="31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="28"/>
@@ -3678,10 +2977,10 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" s="15">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="28"/>
@@ -3689,26 +2988,26 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" s="15">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" s="31">
-        <v>6.5576920000000003</v>
+        <v>0.69230700000000001</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>2</v>
@@ -3716,13 +3015,13 @@
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="38">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>30</v>
@@ -3737,7 +3036,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="40">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>31</v>
@@ -3752,10 +3051,10 @@
         <v>22</v>
       </c>
       <c r="C36" s="35">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>19</v>
@@ -3763,19 +3062,19 @@
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C37" s="31">
-        <v>666</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3798,28 +3097,24 @@
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>118</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B40" s="34"/>
       <c r="C40" s="34">
-        <v>0.60210210210199999</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
-      <c r="B41" s="34" t="s">
-        <v>121</v>
-      </c>
+      <c r="B41" s="34"/>
       <c r="C41" s="34">
-        <v>0.27477477477399997</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>122</v>
@@ -3828,81 +3123,523 @@
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C42" s="34">
-        <v>2.7027027027000002E-2</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="34" t="s">
-        <v>125</v>
-      </c>
+      <c r="B43" s="34"/>
       <c r="C43" s="34">
-        <v>3.0030030030000002E-3</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="34" t="s">
-        <v>127</v>
-      </c>
+      <c r="B44" s="34"/>
       <c r="C44" s="34">
-        <v>0.60210210210199999</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="34" t="s">
-        <v>129</v>
-      </c>
+      <c r="B45" s="34"/>
       <c r="C45" s="34">
-        <v>0.27477477477399997</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
-      <c r="B46" s="34" t="s">
-        <v>131</v>
-      </c>
+      <c r="B46" s="34"/>
       <c r="C46" s="34">
-        <v>2.7027027027000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126">
+        <v>0.79310344827500001</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127">
+        <v>0.45977011494199999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128">
+        <v>4.5977011493999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129">
+        <v>2.2988505746999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="34">
-        <v>3.0030030030000002E-3</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C130">
+        <v>0.79310344827500001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="C131">
+        <v>0.45977011494199999</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132">
+        <v>4.5977011493999999E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133">
+        <v>2.2988505746999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3930,8 +3667,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,60 +3688,60 @@
         <v>0</v>
       </c>
       <c r="C1" s="15">
-        <v>0.22332399999999999</v>
+        <v>0.28973100000000002</v>
       </c>
       <c r="D1" s="15">
-        <v>0.200512</v>
+        <v>0.26371299999999998</v>
       </c>
       <c r="E1" s="15">
-        <v>0.23092599999999999</v>
+        <v>0.29232599999999997</v>
       </c>
       <c r="F1" s="15">
-        <v>0.22250400000000001</v>
+        <v>0.28571400000000002</v>
       </c>
       <c r="G1" s="15">
-        <v>0.229212</v>
+        <v>0.29365200000000002</v>
       </c>
       <c r="H1" s="15">
-        <v>0.23067499999999999</v>
+        <v>0.30175400000000002</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="B2" s="15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" s="15">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="D2" s="15">
         <v>2</v>
       </c>
       <c r="E2" s="15">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F2" s="15">
-        <v>65</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="15">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H2" s="15">
-        <v>9.6666666666666661</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="135" x14ac:dyDescent="0.25">
@@ -4015,100 +3752,100 @@
         <v>1</v>
       </c>
       <c r="C3" s="15">
-        <v>53.071427999999997</v>
+        <v>68.285713999999999</v>
       </c>
       <c r="D3" s="15">
         <v>15</v>
       </c>
       <c r="E3" s="15">
-        <v>49.999999500000001</v>
+        <v>72.142856999999992</v>
       </c>
       <c r="F3" s="15">
-        <v>114.857142</v>
+        <v>0</v>
       </c>
       <c r="G3" s="15">
-        <v>69.285713999999999</v>
+        <v>95</v>
       </c>
       <c r="H3" s="15">
-        <v>33.428570999999998</v>
+        <v>33.357142000000003</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="C4" s="15">
-        <v>0.23245984784400001</v>
+        <v>0.46666666666599999</v>
       </c>
       <c r="D4" s="15">
-        <v>3.0431107353999998E-2</v>
+        <v>0.24</v>
       </c>
       <c r="E4" s="15">
-        <v>0.20963651732800001</v>
+        <v>0.25777777777700001</v>
       </c>
       <c r="F4" s="15">
-        <v>0.34002535925600003</v>
+        <v>4.4444444439999996E-3</v>
       </c>
       <c r="G4" s="15">
-        <v>0.367920540997</v>
+        <v>0.40444444444400002</v>
       </c>
       <c r="H4" s="15">
-        <v>0.14560439560399999</v>
+        <v>0.324444444444</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="15">
-        <v>17.675000000000001</v>
+        <v>2.7818181818180001</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
       </c>
       <c r="E5" s="15">
-        <v>23</v>
+        <v>17.071428571428498</v>
       </c>
       <c r="F5" s="15">
-        <v>20.944444444444002</v>
+        <v>0</v>
       </c>
       <c r="G5" s="15">
-        <v>13</v>
+        <v>9.2142857142849994</v>
       </c>
       <c r="H5" s="15">
-        <v>2.6288265306119998</v>
+        <v>2.2363696808510003</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="15">
-        <v>27.423075999999998</v>
+        <v>1.7692300000000001</v>
       </c>
       <c r="C6" s="21">
         <v>0</v>
@@ -4129,122 +3866,122 @@
         <v>0</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B7" s="34">
-        <v>6.6492829204000001E-2</v>
+        <v>6.0606060606000003E-2</v>
       </c>
       <c r="C7" s="34">
-        <v>2.1818181818E-2</v>
+        <v>4.7619047619000002E-2</v>
       </c>
       <c r="D7" s="34">
-        <v>2.0833333333000002E-2</v>
+        <v>1.8518518518000002E-2</v>
       </c>
       <c r="E7" s="34">
-        <v>3.0241935482999999E-2</v>
+        <v>3.4482758619999998E-2</v>
       </c>
       <c r="F7" s="34">
-        <v>1.3673088874999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="34">
-        <v>6.0310166569999997E-2</v>
+        <v>5.4945054945000002E-2</v>
       </c>
       <c r="H7" s="34">
-        <v>6.0957910014E-2</v>
+        <v>2.7397260273000001E-2</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="48" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B8" s="34">
-        <v>0.33507170795300001</v>
+        <v>0.51515151515099999</v>
       </c>
       <c r="C8" s="34">
-        <v>0</v>
+        <v>0.44761904761900001</v>
       </c>
       <c r="D8" s="34">
-        <v>0.145833333333</v>
+        <v>0.31481481481399998</v>
       </c>
       <c r="E8" s="34">
-        <v>0.20766129032200001</v>
+        <v>0.27586206896499998</v>
       </c>
       <c r="F8" s="34">
-        <v>0.30142945929100001</v>
+        <v>0</v>
       </c>
       <c r="G8" s="34">
-        <v>0.19586444572</v>
+        <v>0.31868131868100003</v>
       </c>
       <c r="H8" s="34">
-        <v>0.13207547169799999</v>
+        <v>0.31506849315000002</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B9" s="34">
-        <v>1.2603215992999999E-2</v>
+        <v>2.2727272727000002E-2</v>
       </c>
       <c r="C9" s="34">
-        <v>0</v>
+        <v>1.9047619046999999E-2</v>
       </c>
       <c r="D9" s="34">
         <v>0</v>
       </c>
       <c r="E9" s="34">
-        <v>9.0725806449999998E-3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="34">
-        <v>4.350528278E-3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="34">
-        <v>1.1487650775E-2</v>
+        <v>1.0989010989E-2</v>
       </c>
       <c r="H9" s="34">
-        <v>8.7082728589999991E-3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B10" s="34">
-        <v>0.53455019556700001</v>
+        <v>0.79545454545399996</v>
       </c>
       <c r="C10" s="34">
-        <v>0</v>
+        <v>0.77142857142800003</v>
       </c>
       <c r="D10" s="34">
-        <v>0.67361111111100003</v>
+        <v>0.88888888888799999</v>
       </c>
       <c r="E10" s="34">
-        <v>0.5</v>
+        <v>0.60344827586200001</v>
       </c>
       <c r="F10" s="34">
-        <v>0.54133001864499997</v>
+        <v>1</v>
       </c>
       <c r="G10" s="34">
-        <v>0.43710511200399998</v>
+        <v>0.67032967032900004</v>
       </c>
       <c r="H10" s="34">
-        <v>0.66618287372999996</v>
+        <v>0.79452054794500004</v>
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="49"/>
@@ -4255,28 +3992,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B11" s="34">
-        <v>0.83572359843499999</v>
+        <v>0.61363636363600005</v>
       </c>
       <c r="C11" s="34">
-        <v>0.51090909090900005</v>
+        <v>0.609523809523</v>
       </c>
       <c r="D11" s="34">
-        <v>0.256944444444</v>
+        <v>0.27777777777700002</v>
       </c>
       <c r="E11" s="34">
-        <v>0.48689516128999999</v>
+        <v>0.53448275862000005</v>
       </c>
       <c r="F11" s="34">
-        <v>0.69981354878799995</v>
+        <v>0</v>
       </c>
       <c r="G11" s="34">
-        <v>0.75990809879300003</v>
+        <v>0.58241758241700003</v>
       </c>
       <c r="H11" s="34">
-        <v>0.56894049346800002</v>
+        <v>0.47945205479399999</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="49"/>
@@ -4287,28 +4024,28 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -4447,8 +4184,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,45 +4199,42 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C2" s="57">
-        <v>9.0769230000000007</v>
+        <v>6.7692300000000003</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="57" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C3" s="57">
-        <v>1.173076</v>
+        <v>1.0384610000000001</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="49"/>
@@ -4508,7 +4242,7 @@
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="57" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C4" s="57">
         <v>9.6153000000000002E-2</v>
@@ -4518,28 +4252,28 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C5" s="57">
-        <v>7.6923000000000005E-2</v>
+        <v>5.7692E-2</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
       <c r="B6" s="57" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C6" s="57">
-        <v>9.6153000000000002E-2</v>
+        <v>0.115384</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="49"/>
@@ -4547,7 +4281,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="57" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C7" s="57">
         <v>1.9230000000000001E-2</v>
@@ -4557,28 +4291,28 @@
     </row>
     <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C8" s="57">
-        <v>16</v>
+        <v>37.428570999999998</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="57" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C9" s="57">
-        <v>20.428571000000002</v>
+        <v>25.428570999999998</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="49"/>
@@ -4586,33 +4320,35 @@
     <row r="10" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="57" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C10" s="57">
-        <v>22.285713999999999</v>
+        <v>43.428570999999998</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C11" s="57">
-        <v>9.4999994999999995</v>
+        <v>44.071427999999997</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="49"/>
+        <v>186</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="57" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C12" s="57">
         <v>4.8571419999999996</v>
@@ -4623,7 +4359,7 @@
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="57" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C13" s="57">
         <v>-1</v>
@@ -4633,28 +4369,28 @@
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C14" s="57">
-        <v>40.857142000000003</v>
+        <v>45.571427999999997</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="57" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C15" s="57">
-        <v>23.571428000000001</v>
+        <v>68</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="49"/>
@@ -4662,10 +4398,10 @@
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="57">
-        <v>75.285713999999999</v>
+        <v>48.714284999999997</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="49"/>
@@ -4673,10 +4409,10 @@
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="57" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C17" s="57">
-        <v>21.142856999999999</v>
+        <v>18.714285</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="49"/>
@@ -4684,10 +4420,10 @@
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="57">
-        <v>104.42857100000001</v>
+        <v>14.571427999999999</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="49"/>
@@ -4695,38 +4431,38 @@
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="57" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C19" s="57">
-        <v>84.428571000000005</v>
+        <v>62</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C20" s="57">
-        <v>33.999999500000001</v>
+        <v>37.428570999999998</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="57" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C21" s="57">
-        <v>35.571427999999997</v>
+        <v>44.928571000000005</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="49"/>
@@ -4734,38 +4470,38 @@
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="57" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C22" s="57">
-        <v>49</v>
+        <v>68.142857000000006</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C23" s="57">
-        <v>20.142856999999999</v>
+        <v>22.142856999999999</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C24" s="57">
-        <v>12.071427999999999</v>
+        <v>28</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="49"/>
@@ -4773,10 +4509,10 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="57">
-        <v>34.7857135</v>
+        <v>27</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="49"/>
@@ -4784,10 +4520,10 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="57" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C26" s="57">
-        <v>9.7857139999999987</v>
+        <v>14.642856500000001</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="49"/>
@@ -4795,10 +4531,10 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
       <c r="B27" s="57" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C27" s="57">
-        <v>28.928570999999998</v>
+        <v>39.571427999999997</v>
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="49"/>
@@ -4806,38 +4542,38 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="57" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C28" s="57">
-        <v>47.428570999999998</v>
+        <v>6.571428</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C29" s="57">
-        <v>0.54703832752600001</v>
+        <v>0.45488721804499999</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="57" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C30" s="57">
-        <v>2.6694045174000001E-2</v>
+        <v>3.8004750593E-2</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="49"/>
@@ -4845,10 +4581,10 @@
     <row r="31" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="57" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C31" s="57">
-        <v>8.9285714284999998E-2</v>
+        <v>5.6338028169E-2</v>
       </c>
       <c r="D31" s="58"/>
       <c r="E31" s="49"/>
@@ -4882,187 +4618,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
-    </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="D30" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="D31" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="62"/>
-    </row>
-    <row r="32" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="D32" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:B26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>